--- a/cfs_6_0.2.xlsx
+++ b/cfs_6_0.2.xlsx
@@ -530,7 +530,7 @@
         <v>0.804</v>
       </c>
       <c r="H2" t="n">
-        <v>0.314</v>
+        <v>0.407</v>
       </c>
       <c r="I2" t="n">
         <v>0.639</v>
@@ -588,7 +588,7 @@
         <v>0.44</v>
       </c>
       <c r="L3" t="n">
-        <v>0.495</v>
+        <v>0.447</v>
       </c>
       <c r="M3" t="n">
         <v>5.855072463768116</v>
@@ -607,7 +607,7 @@
         <v>0.605</v>
       </c>
       <c r="C4" t="n">
-        <v>0.727</v>
+        <v>0.68</v>
       </c>
       <c r="D4" t="n">
         <v>0.479</v>
@@ -671,13 +671,13 @@
         <v>0.352</v>
       </c>
       <c r="I5" t="n">
-        <v>0.604</v>
+        <v>0.551</v>
       </c>
       <c r="J5" t="n">
         <v>0.322</v>
       </c>
       <c r="K5" t="n">
-        <v>0.546</v>
+        <v>0.417</v>
       </c>
       <c r="L5" t="n">
         <v>0.429</v>
@@ -705,7 +705,7 @@
         <v>0.51</v>
       </c>
       <c r="E6" t="n">
-        <v>0.645</v>
+        <v>0.598</v>
       </c>
       <c r="F6" t="n">
         <v>0.5679999999999999</v>
@@ -806,7 +806,7 @@
         <v>0.707</v>
       </c>
       <c r="H8" t="n">
-        <v>0.388</v>
+        <v>0.404</v>
       </c>
       <c r="I8" t="n">
         <v>0.579</v>
@@ -1027,13 +1027,13 @@
         <v>0.478</v>
       </c>
       <c r="E13" t="n">
-        <v>0.547</v>
+        <v>0.613</v>
       </c>
       <c r="F13" t="n">
         <v>0.613</v>
       </c>
       <c r="G13" t="n">
-        <v>0.599</v>
+        <v>0.759</v>
       </c>
       <c r="H13" t="n">
         <v>0.375</v>
@@ -2674,7 +2674,7 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.715</v>
+        <v>0.6879999999999999</v>
       </c>
       <c r="C49" t="n">
         <v>0.588</v>
@@ -3287,7 +3287,7 @@
         <v>0.484</v>
       </c>
       <c r="G62" t="n">
-        <v>0.512</v>
+        <v>0.543</v>
       </c>
       <c r="H62" t="n">
         <v>0.364</v>
@@ -3419,7 +3419,7 @@
         <v>0.49</v>
       </c>
       <c r="E65" t="n">
-        <v>0.626</v>
+        <v>0.603</v>
       </c>
       <c r="F65" t="n">
         <v>0.592</v>
@@ -3548,7 +3548,7 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.623</v>
+        <v>0.634</v>
       </c>
       <c r="C68" t="n">
         <v>0.605</v>
@@ -3575,7 +3575,7 @@
         <v>0.325</v>
       </c>
       <c r="K68" t="n">
-        <v>0.487</v>
+        <v>0.469</v>
       </c>
       <c r="L68" t="n">
         <v>0.419</v>
@@ -4158,10 +4158,10 @@
         <v>0.506</v>
       </c>
       <c r="F81" t="n">
-        <v>0.466</v>
+        <v>0.5679999999999999</v>
       </c>
       <c r="G81" t="n">
-        <v>0.52</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="H81" t="n">
         <v>0.361</v>
@@ -4302,7 +4302,7 @@
         <v>0.601</v>
       </c>
       <c r="H84" t="n">
-        <v>0.307</v>
+        <v>0.423</v>
       </c>
       <c r="I84" t="n">
         <v>0.544</v>
@@ -4471,7 +4471,7 @@
         <v>0.587</v>
       </c>
       <c r="C88" t="n">
-        <v>0.63</v>
+        <v>0.5620000000000001</v>
       </c>
       <c r="D88" t="n">
         <v>0.431</v>
@@ -4544,7 +4544,7 @@
         <v>0.407</v>
       </c>
       <c r="L89" t="n">
-        <v>0.41</v>
+        <v>0.398</v>
       </c>
       <c r="M89" t="n">
         <v>1.375</v>
@@ -4710,10 +4710,10 @@
         <v>0.54</v>
       </c>
       <c r="F93" t="n">
-        <v>0.524</v>
+        <v>0.498</v>
       </c>
       <c r="G93" t="n">
-        <v>0.587</v>
+        <v>0.595</v>
       </c>
       <c r="H93" t="n">
         <v>0.392</v>
@@ -4900,13 +4900,13 @@
         <v>0.5669999999999999</v>
       </c>
       <c r="H97" t="n">
-        <v>0.315</v>
+        <v>0.368</v>
       </c>
       <c r="I97" t="n">
         <v>0.5659999999999999</v>
       </c>
       <c r="J97" t="n">
-        <v>0.333</v>
+        <v>0.339</v>
       </c>
       <c r="K97" t="n">
         <v>0.407</v>
@@ -5050,7 +5050,7 @@
         <v>0.489</v>
       </c>
       <c r="L100" t="n">
-        <v>0.434</v>
+        <v>0.401</v>
       </c>
       <c r="M100" t="n">
         <v>1.347826086956522</v>
